--- a/atomica/library/tb_simple_dyn_databook.xlsx
+++ b/atomica/library/tb_simple_dyn_databook.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73AE4470-F459-8D4D-83B4-E8D4D9270C53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ADF2F8-63A7-4621-B670-99AB9A854DC6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,520 +34,88 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{908129C3-6159-0448-B018-90A768D61B99}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
         <r>
           <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>The Journal of Infectious Diseases</t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{7A69379A-5B1B-2C49-A4FE-556C850AB0CC}">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{4D6C8F24-5DE6-6947-BE05-1A0A148F5DD9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
         <r>
           <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{2E3F5F4F-18E2-AD4D-B78B-8E5BF34B3180}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{50C072C8-8DE2-A849-A2B4-79B8AAF5A91D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
       </text>
     </comment>
@@ -554,41 +129,31 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{AD978786-588E-C247-864F-D1E30D67DF7C}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Placeholder value</t>
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{C66F225B-123A-674D-9996-FC1550184176}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Placeholder value</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
         </r>
       </text>
     </comment>
@@ -605,6 +170,12 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>Population size</t>
   </si>
   <si>
@@ -641,6 +212,12 @@
     <t>Estimated number of new TB cases annually</t>
   </si>
   <si>
+    <t>Natural recovery rate</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
     <t>Annual number vaccinated</t>
   </si>
   <si>
@@ -653,9 +230,6 @@
     <t>Loss-to-follow-up rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Time after initiating treatment to treatment success (years)</t>
   </si>
   <si>
@@ -675,22 +249,13 @@
   </si>
   <si>
     <t>Background mortality rate</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Natural recovery rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,47 +270,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1398,12 +922,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,12 +935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1435,25 +959,25 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1472,17 +996,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <f>ROUND(F2*F2/G2,0)</f>
@@ -1497,15 +1021,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1524,17 +1048,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1544,15 +1068,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -1571,17 +1095,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1591,15 +1115,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -1618,17 +1142,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1638,15 +1162,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1665,17 +1189,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1685,15 +1209,15 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -1712,17 +1236,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1782,7 +1306,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1803,23 +1327,23 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1838,17 +1362,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1858,15 +1382,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1885,17 +1409,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1905,15 +1429,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -1932,19 +1456,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>0.16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1952,15 +1476,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -1979,17 +1503,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2000,15 +1524,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -2027,17 +1551,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2048,15 +1572,15 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -2075,17 +1599,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2095,15 +1619,15 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -2122,17 +1646,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2142,15 +1666,15 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -2169,19 +1693,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4">
         <v>0.2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2189,15 +1713,15 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -2216,19 +1740,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <v>0.16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2236,15 +1760,15 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -2263,19 +1787,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4">
         <v>0.12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2283,15 +1807,15 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -2310,19 +1834,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>0.06</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2330,15 +1854,15 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
@@ -2357,19 +1881,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4">
         <v>0.03</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2377,15 +1901,15 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -2404,19 +1928,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2530,13 +2054,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B38 B35 B32 B29 B26 B8" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20 B38 B35 B32 B29 B26 B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/tb_simple_dyn_databook.xlsx
+++ b/atomica/library/tb_simple_dyn_databook.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ADF2F8-63A7-4621-B670-99AB9A854DC6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C68499-CE36-AC48-9779-BA27B7B94096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20820" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -215,9 +221,6 @@
     <t>Natural recovery rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Annual number vaccinated</t>
   </si>
   <si>
@@ -249,6 +252,9 @@
   </si>
   <si>
     <t>Background mortality rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
   </si>
 </sst>
 </file>
@@ -593,9 +599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -633,9 +639,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,26 +674,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,26 +709,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,12 +894,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -959,17 +931,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -996,7 +968,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1021,7 +993,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1020,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1068,7 +1040,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1067,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1115,7 +1087,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1114,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1162,7 +1134,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1161,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1209,7 +1181,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1257,52 +1229,52 @@
       <c r="I17" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="35" priority="3">
+      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="4">
+      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="33" priority="5">
+      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="6">
+      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>AND(COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
-      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="3">
-      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="27" priority="5">
-      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1324,18 +1296,18 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1334,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1382,7 +1354,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1381,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1429,7 +1401,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1456,13 +1428,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <v>0.16</v>
@@ -1476,9 +1448,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1503,7 +1475,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1524,9 +1496,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1551,7 +1523,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1572,9 +1544,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1599,7 +1571,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1619,9 +1591,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1646,13 +1618,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
@@ -1666,9 +1638,9 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1693,13 +1665,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
         <v>0.2</v>
@@ -1713,9 +1685,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1740,13 +1712,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4">
         <v>0.16</v>
@@ -1760,9 +1732,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1787,13 +1759,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4">
         <v>0.12</v>
@@ -1807,9 +1779,9 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -1834,13 +1806,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4">
         <v>0.06</v>
@@ -1854,9 +1826,9 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -1881,13 +1853,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4">
         <v>0.03</v>
@@ -1901,9 +1873,9 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
@@ -1928,13 +1900,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4">
         <v>1.4999999999999999E-2</v>
@@ -1949,119 +1921,119 @@
       <c r="I38" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="8">
+      <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>AND(COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>AND(COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
-      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>AND(COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>COUNTIF(E29:I29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="6" priority="20">
       <formula>AND(COUNTIF(E29:I29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="5" priority="21">
       <formula>COUNTIF(E32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>AND(COUNTIF(E32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="3" priority="23">
       <formula>COUNTIF(E35:I35,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>AND(COUNTIF(E35:I35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="7" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>COUNTIF(E38:I38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="26">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>AND(COUNTIF(E38:I38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20 B38 B35 B32 B29 B26 B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20 B26 B29 B32 B35 B38 B8" xr:uid="{28CE82C6-D7E0-4447-8A79-811A498702C2}">
+      <formula1>"Rate (per year)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
